--- a/PQforNoise.xlsx
+++ b/PQforNoise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53aa480d61b3ab9e/Documents/Project X/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53aa480d61b3ab9e/Documents/Project X/excel/2025_04/PQforNoise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{68C58F71-8250-454A-BF9A-F8EA8DA0F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75CD397A-7EB4-4896-AC3F-08D2DB8AC562}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{68C58F71-8250-454A-BF9A-F8EA8DA0F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0EC0E0-D3A8-4240-AC67-9D57F29A4EBA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="966" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="966" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Time Series" sheetId="15" r:id="rId4"/>
     <sheet name="Time Series Graph" sheetId="24" r:id="rId5"/>
     <sheet name="Background Analysis" sheetId="33" r:id="rId6"/>
+    <sheet name="About" sheetId="35" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">'Background Analysis'!$B$2:$F$75</definedName>
@@ -28,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="106">
   <si>
     <t xml:space="preserve">Todo </t>
   </si>
@@ -448,6 +449,15 @@
   <si>
     <t xml:space="preserve">Enter path then csv filename. Then select "Data" then "Refresh All" to process the data. </t>
   </si>
+  <si>
+    <t xml:space="preserve">PQforNoise is a free to use piece of software from Sulltech Ltd. </t>
+  </si>
+  <si>
+    <t>Sulltech Ltd are a consultancy which specialised in the fields of acoustics and software</t>
+  </si>
+  <si>
+    <t>For further info please contact info@sulltech.co.uk</t>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +506,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -598,13 +615,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
@@ -616,24 +648,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -981,6 +995,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8604,10 +8621,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sean Sullivan" refreshedDate="45744.565154282405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="73" xr:uid="{F4007E7F-3D86-4033-B84F-08D1D56EFC62}">
   <cacheSource type="worksheet">
@@ -9212,7 +9225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB2A6C7E-3DF6-4695-B1E0-E5964920C9BF}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB2A6C7E-3DF6-4695-B1E0-E5964920C9BF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M14:R16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10050,8 +10063,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E84643E-7439-4D59-9844-24C6592D811F}" name="PeriodTable" displayName="PeriodTable" ref="B4:C8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B4:C8" xr:uid="{4E84643E-7439-4D59-9844-24C6592D811F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BEF6679E-04D0-4763-BBB4-5FD4C9CE1ADD}" uniqueName="1" name="Start" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C9B0CE35-6C57-45F1-8B48-204EC6CB034F}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{BEF6679E-04D0-4763-BBB4-5FD4C9CE1ADD}" uniqueName="1" name="Start" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C9B0CE35-6C57-45F1-8B48-204EC6CB034F}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10061,24 +10074,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{86CE39AC-4A68-45C1-A79B-80EEB2E7687F}" name="CsvFormatsTable" displayName="CsvFormatsTable" ref="K4:L12" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{991EA18E-368F-44B0-9CDB-8929875D47B6}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{97912705-89CD-4292-961B-C4F36611C2B2}" name="Value" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{97912705-89CD-4292-961B-C4F36611C2B2}" name="Value" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16CC9791-57C6-4BBB-B72A-D9E9A7925AD7}" name="TblMeters" displayName="TblMeters" ref="Q5:X12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16CC9791-57C6-4BBB-B72A-D9E9A7925AD7}" name="TblMeters" displayName="TblMeters" ref="Q5:X12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="Q5:X12" xr:uid="{16CC9791-57C6-4BBB-B72A-D9E9A7925AD7}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8992758B-24C2-4CED-A657-F00DE1D317AD}" name="Labels" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6B51234A-6608-413D-BED3-068F6FD6DEAA}" name="Svan971" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{A5FE026C-E7DF-4FD7-81C5-84DFE8488847}" name="CirrusCR821A" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{0889C87B-4123-4522-A04B-B246DEA8EAA9}" name="LarsonDavis820" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CF809FA2-A919-4594-B79A-F04B87216771}" name="UA" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{39584A73-B576-46C0-B67E-E14FA137220E}" name="NOR140" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{33357423-B67F-4D19-9122-EEEBF28472A5}" name="TBAFormat2" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{4D103EA9-053D-4DD9-B5E7-87493290493C}" name="TBAFormat3" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8992758B-24C2-4CED-A657-F00DE1D317AD}" name="Labels" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6B51234A-6608-413D-BED3-068F6FD6DEAA}" name="Svan971" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A5FE026C-E7DF-4FD7-81C5-84DFE8488847}" name="CirrusCR821A" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0889C87B-4123-4522-A04B-B246DEA8EAA9}" name="LarsonDavis820" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CF809FA2-A919-4594-B79A-F04B87216771}" name="UA" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{39584A73-B576-46C0-B67E-E14FA137220E}" name="NOR140" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{33357423-B67F-4D19-9122-EEEBF28472A5}" name="TBAFormat2" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{4D103EA9-053D-4DD9-B5E7-87493290493C}" name="TBAFormat3" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10100,8 +10113,8 @@
   <autoFilter ref="A1:L3" xr:uid="{296D4C09-6B13-499F-9239-2713BEE0E97F}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{63638232-05B2-448A-B7F6-1A425A4CE643}" uniqueName="1" name="PeriodNumber" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1A092A9C-D9D5-420F-ABFC-90B24F097219}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{8DB2BF8B-2F99-40C6-945F-8042A255D54A}" uniqueName="3" name="Time" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1A092A9C-D9D5-420F-ABFC-90B24F097219}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8DB2BF8B-2F99-40C6-945F-8042A255D54A}" uniqueName="3" name="Time" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{89B73ACA-AF6D-4CFB-95AF-60E3732F17E2}" uniqueName="4" name="MinLAmax" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{5CE09BEF-7C30-4058-97AC-269647FB567E}" uniqueName="5" name="MaxLAmax" queryTableFieldId="5"/>
     <tableColumn id="14" xr3:uid="{F20C84FC-C56F-4746-A79F-30F64FBCEF7D}" uniqueName="14" name="Ranked LAmax" queryTableFieldId="14"/>
@@ -10126,11 +10139,11 @@
     <tableColumn id="4" xr3:uid="{5A82D0EB-D428-44F9-85B3-51F2676E5644}" uniqueName="4" name="LAmax" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{8784F60B-11D0-498F-B462-63AB2B65BFC0}" uniqueName="5" name="LA90" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{7562436B-55E1-4247-86A0-3648AF67E3E9}" uniqueName="6" name="Index" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{B689AFFB-D2A8-4BA9-A734-4A60AC6D30D6}" uniqueName="7" name="Period" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{B689AFFB-D2A8-4BA9-A734-4A60AC6D30D6}" uniqueName="7" name="Period" queryTableFieldId="7" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{4594FC87-2D80-45D5-81A2-4C72720EFA66}" uniqueName="8" name="AntiLogLAeq" queryTableFieldId="14"/>
     <tableColumn id="9" xr3:uid="{2998402E-2598-4DF3-8F16-46FFA32EEB7E}" uniqueName="9" name="AntiLogLA90" queryTableFieldId="16"/>
     <tableColumn id="10" xr3:uid="{49B51F78-3241-4E81-A47D-5D7BBF36F2F8}" uniqueName="10" name="PeriodNumber" queryTableFieldId="10"/>
-    <tableColumn id="13" xr3:uid="{6AEB4BAB-BFDF-4661-B1BB-4360FB5440D1}" uniqueName="13" name="DateAndTime" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{6AEB4BAB-BFDF-4661-B1BB-4360FB5440D1}" uniqueName="13" name="DateAndTime" queryTableFieldId="13" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10140,9 +10153,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{013524F6-89E3-4228-941A-10CD9A4B0502}" name="BackgroundAnalysisTable" displayName="BackgroundAnalysisTable" ref="B2:F75" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:F75" xr:uid="{013524F6-89E3-4228-941A-10CD9A4B0502}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B1842572-051F-46C7-9CC1-8066CFC8DD33}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FB5D9476-B869-4242-ABA3-A12D407A15AB}" uniqueName="2" name="Time" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3986A359-FC0E-4F44-AFFB-010F28C72F89}" uniqueName="3" name="Period" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B1842572-051F-46C7-9CC1-8066CFC8DD33}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FB5D9476-B869-4242-ABA3-A12D407A15AB}" uniqueName="2" name="Time" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3986A359-FC0E-4F44-AFFB-010F28C72F89}" uniqueName="3" name="Period" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{990C8210-1959-4A4B-B3DB-D509575B308B}" uniqueName="4" name="PeriodNumber" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{F24DB2EA-0C18-4327-B6B1-71B9FC06B990}" uniqueName="5" name="RoundedLA90" queryTableFieldId="5"/>
   </tableColumns>
@@ -13874,7 +13887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BFDBB-AC47-4538-B691-004A2070B570}">
   <dimension ref="B2:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -14180,19 +14193,19 @@
       <c r="M16" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16">
         <v>8</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16">
         <v>7</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16">
         <v>2</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16">
         <v>20</v>
       </c>
     </row>
@@ -15205,6 +15218,39 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA5E975-EC7B-42FC-842D-21D4CB3F3EBC}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/PQforNoise.xlsx
+++ b/PQforNoise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53aa480d61b3ab9e/Documents/Project X/excel/2025_04/PQforNoise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{68C58F71-8250-454A-BF9A-F8EA8DA0F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0EC0E0-D3A8-4240-AC67-9D57F29A4EBA}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{68C58F71-8250-454A-BF9A-F8EA8DA0F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD88C698-A2D3-4644-B37F-36F696720C49}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="966" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,10 +453,10 @@
     <t xml:space="preserve">PQforNoise is a free to use piece of software from Sulltech Ltd. </t>
   </si>
   <si>
-    <t>Sulltech Ltd are a consultancy which specialised in the fields of acoustics and software</t>
+    <t>For further info please contact info@sulltech.co.uk</t>
   </si>
   <si>
-    <t>For further info please contact info@sulltech.co.uk</t>
+    <t>Sulltech Ltd are a consultancy which specialises in the fields of acoustics and software</t>
   </si>
 </sst>
 </file>
@@ -612,10 +612,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8621,6 +8621,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sean Sullivan" refreshedDate="45744.565154282405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="73" xr:uid="{F4007E7F-3D86-4033-B84F-08D1D56EFC62}">
   <cacheSource type="worksheet">
@@ -10540,18 +10544,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="G2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="17"/>
       <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
@@ -15226,27 +15230,27 @@
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="17"/>
+    <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
